--- a/Project/Characterization/Third signature/Standard coefficients.xlsx
+++ b/Project/Characterization/Third signature/Standard coefficients.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clauw\Documents\Programming\Final-Project\Project\Characterization\Third signature\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E548F0-7221-4CE3-9131-EB38465D93B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1536" yWindow="2556" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -61,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +131,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -203,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,210 +428,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6.5431262075937326E-7</v>
       </c>
       <c r="B2">
-        <v>6.543126207593733E-07</v>
+        <v>-1.8850025534689169E-4</v>
       </c>
       <c r="C2">
-        <v>-0.0001885002553468917</v>
+        <v>0.1190980787437922</v>
       </c>
       <c r="D2">
-        <v>0.1190980787437922</v>
+        <v>1.226896255430651E-7</v>
       </c>
       <c r="E2">
-        <v>1.226896255430651E-07</v>
+        <v>4.3336696735625933E-5</v>
       </c>
       <c r="F2">
-        <v>4.333669673562593E-05</v>
+        <v>6.8520987594910326E-3</v>
       </c>
       <c r="G2">
-        <v>0.006852098759491033</v>
-      </c>
-      <c r="H2">
         <v>4034.5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.132448129216232E-6</v>
       </c>
       <c r="B3">
-        <v>1.132448129216232E-06</v>
+        <v>-1.516616045745098E-4</v>
       </c>
       <c r="C3">
-        <v>-0.0001516616045745098</v>
+        <v>0.1134533447128783</v>
       </c>
       <c r="D3">
-        <v>0.1134533447128783</v>
+        <v>3.0437283264637107E-7</v>
       </c>
       <c r="E3">
-        <v>3.043728326463711E-07</v>
+        <v>1.5444973087809459E-4</v>
       </c>
       <c r="F3">
-        <v>0.0001544497308780946</v>
+        <v>1.8838062307703459E-2</v>
       </c>
       <c r="G3">
-        <v>0.01883806230770346</v>
-      </c>
-      <c r="H3">
         <v>4514.5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.0307654379618059E-6</v>
       </c>
       <c r="B4">
-        <v>1.030765437961806E-06</v>
+        <v>-3.3418200032520713E-4</v>
       </c>
       <c r="C4">
-        <v>-0.0003341820003252071</v>
+        <v>0.12277337203232649</v>
       </c>
       <c r="D4">
-        <v>0.1227733720323265</v>
+        <v>1.4728091587876091E-7</v>
       </c>
       <c r="E4">
-        <v>1.472809158787609E-07</v>
+        <v>7.3364731277372828E-5</v>
       </c>
       <c r="F4">
-        <v>7.336473127737283E-05</v>
+        <v>8.5674116389554585E-3</v>
       </c>
       <c r="G4">
-        <v>0.008567411638955458</v>
-      </c>
-      <c r="H4">
         <v>4864.5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.339657130350008E-6</v>
       </c>
       <c r="B5">
-        <v>1.339657130350008E-06</v>
+        <v>-2.737271506734991E-4</v>
       </c>
       <c r="C5">
-        <v>-0.0002737271506734991</v>
+        <v>0.15954496278677011</v>
       </c>
       <c r="D5">
-        <v>0.1595449627867701</v>
+        <v>1.331423546063812E-7</v>
       </c>
       <c r="E5">
-        <v>1.331423546063812E-07</v>
+        <v>7.3107288514447403E-5</v>
       </c>
       <c r="F5">
-        <v>7.31072885144474E-05</v>
+        <v>9.4542742993454915E-3</v>
       </c>
       <c r="G5">
-        <v>0.009454274299345491</v>
-      </c>
-      <c r="H5">
         <v>5334.5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.3066690292244799E-6</v>
       </c>
       <c r="B6">
-        <v>1.30666902922448E-06</v>
+        <v>-2.311256531190317E-4</v>
       </c>
       <c r="C6">
-        <v>-0.0002311256531190317</v>
+        <v>0.26705245235702713</v>
       </c>
       <c r="D6">
-        <v>0.2670524523570271</v>
+        <v>4.2355335973529158E-7</v>
       </c>
       <c r="E6">
-        <v>4.235533597352916E-07</v>
+        <v>2.6508656094246348E-4</v>
       </c>
       <c r="F6">
-        <v>0.0002650865609424635</v>
+        <v>4.1203389304014799E-2</v>
       </c>
       <c r="G6">
-        <v>0.0412033893040148</v>
-      </c>
-      <c r="H6">
         <v>5939.5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.3079674228697859E-6</v>
       </c>
       <c r="B7">
-        <v>1.307967422869786E-06</v>
+        <v>-3.012155793847558E-4</v>
       </c>
       <c r="C7">
-        <v>-0.0003012155793847558</v>
+        <v>0.27532340221290008</v>
       </c>
       <c r="D7">
-        <v>0.2753234022129001</v>
+        <v>3.133861742570031E-7</v>
       </c>
       <c r="E7">
-        <v>3.133861742570031E-07</v>
+        <v>1.837773620333361E-4</v>
       </c>
       <c r="F7">
-        <v>0.0001837773620333361</v>
+        <v>2.6636560755602411E-2</v>
       </c>
       <c r="G7">
-        <v>0.02663656075560241</v>
-      </c>
-      <c r="H7">
         <v>6839.5</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>
